--- a/data/trans_dic/P62A$jubilacion-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,48; 93,63</t>
+          <t>84,57; 93,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>71,14; 83,32</t>
+          <t>71,12; 83,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,59; 90,93</t>
+          <t>80,6; 91,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,7; 60,78</t>
+          <t>48,67; 61,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,1; 56,83</t>
+          <t>39,61; 57,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,09; 50,08</t>
+          <t>35,09; 50,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,34; 55,39</t>
+          <t>38,19; 55,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 33,53</t>
+          <t>24,84; 33,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66,73; 77,05</t>
+          <t>66,78; 77,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>57,44; 67,52</t>
+          <t>57,52; 67,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>63,72; 73,71</t>
+          <t>63,24; 73,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>38,23; 46,15</t>
+          <t>38,3; 46,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,79; 93,39</t>
+          <t>85,74; 93,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>67,0; 78,82</t>
+          <t>67,11; 78,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>75,42; 85,32</t>
+          <t>75,65; 85,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>46,75; 59,06</t>
+          <t>47,07; 58,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,79; 35,51</t>
+          <t>21,72; 36,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,58; 43,3</t>
+          <t>29,06; 43,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,27; 53,69</t>
+          <t>38,77; 53,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,87; 33,24</t>
+          <t>23,86; 33,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,27; 69,32</t>
+          <t>59,19; 69,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,17; 60,34</t>
+          <t>51,03; 61,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>61,26; 70,57</t>
+          <t>61,09; 70,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,53; 45,16</t>
+          <t>37,28; 45,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>80,16; 91,3</t>
+          <t>79,52; 90,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,24; 79,93</t>
+          <t>65,45; 80,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,79; 90,37</t>
+          <t>78,81; 90,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,24; 57,91</t>
+          <t>45,16; 58,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,17; 47,36</t>
+          <t>27,66; 45,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,03; 35,24</t>
+          <t>20,35; 36,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,75; 52,27</t>
+          <t>33,37; 51,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,94; 91,55</t>
+          <t>27,55; 93,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,44; 70,07</t>
+          <t>58,52; 70,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,57; 58,11</t>
+          <t>45,83; 57,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>61,36; 72,72</t>
+          <t>61,76; 72,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,7; 85,92</t>
+          <t>39,92; 84,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>85,13; 94,32</t>
+          <t>84,95; 93,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,75; 86,08</t>
+          <t>74,95; 85,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,61; 87,12</t>
+          <t>77,49; 87,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,39; 55,71</t>
+          <t>43,79; 54,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,82; 50,56</t>
+          <t>35,18; 50,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,03; 43,01</t>
+          <t>29,25; 42,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,64; 46,36</t>
+          <t>32,32; 45,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,81; 42,46</t>
+          <t>33,0; 42,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,7; 72,19</t>
+          <t>62,67; 72,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>54,47; 63,53</t>
+          <t>53,96; 63,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>56,85; 66,1</t>
+          <t>57,09; 66,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,7; 46,96</t>
+          <t>40,02; 47,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,66; 91,18</t>
+          <t>86,54; 91,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>73,21; 79,28</t>
+          <t>73,16; 79,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>81,03; 86,07</t>
+          <t>80,8; 86,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>49,19; 55,56</t>
+          <t>49,18; 55,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,11; 43,37</t>
+          <t>35,09; 43,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,34; 39,53</t>
+          <t>31,81; 39,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,17; 47,07</t>
+          <t>39,38; 47,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,7; 71,69</t>
+          <t>30,59; 72,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>64,7; 69,99</t>
+          <t>64,44; 69,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>54,96; 60,06</t>
+          <t>55,07; 60,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>63,1; 67,69</t>
+          <t>63,01; 67,74</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>41,75; 67,16</t>
+          <t>41,78; 65,94</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de jubilación</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>153324</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>164553</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>163347</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>98386</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>61166</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>69997</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>69504</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>49228</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>214490</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>234550</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>232851</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>147614</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>144708; 160259</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>150393; 176241</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>152724; 172485</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>87589; 110240</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50166; 72279</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>57549; 82161</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>56943; 83494</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42249; 57444</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>198836; 230052</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>215978; 253551</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>214155; 250072</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>134082; 162310</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>199897</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>179986</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>214101</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>105408</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>43236</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>75449</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>94150</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52113</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>243132</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>255435</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>308250</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>157521</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>190800; 208293</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>165245; 193088</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>200191; 225506</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>93278; 116661</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33320; 55806</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>60961; 90650</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>79026; 109623</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>44005; 60930</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>222517; 260789</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>232695; 278343</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>286182; 329042</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>142650; 173386</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>132818</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>123645</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>155585</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>103551</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44850</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40624</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>57575</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>246067</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>177668</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>164269</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>213160</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>349618</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>122762; 140442</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>110446; 135567</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>143498; 164309</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>90715; 117907</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33144; 54965</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30090; 53334</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45197; 70242</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>95744; 324343</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>160450; 192944</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>145095; 182608</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>196093; 231460</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>218900; 465652</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>171260</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>197673</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>219585</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111034</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>75880</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>79915</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>96985</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>88676</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>247140</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>277588</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>316570</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>199710</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>161292; 178455</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>183391; 209433</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>205378; 231069</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>97416; 122226</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>62000; 88881</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65651; 95124</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>80363; 114273</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>77710; 99721</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>229440; 264376</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>253112; 298223</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>293237; 339518</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>183291; 215909</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>657299</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>665857</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>752619</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>418379</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>225132</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>265986</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>318213</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>436084</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>882431</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>931843</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1070832</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>854463</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>638560; 673151</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>637330; 689653</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>728215; 776258</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>394198; 442602</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>202158; 248046</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>237356; 293882</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>290214; 347978</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>286820; 680323</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>846704; 915506</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>890632; 970909</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1032356; 1109783</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>726665; 1146732</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>